--- a/IBJJF Vegas 2025 Urls.xlsx
+++ b/IBJJF Vegas 2025 Urls.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>Order of Fights</t>
   </si>
@@ -206,6 +206,12 @@
   <si>
     <t>Aug. 30st</t>
   </si>
+  <si>
+    <t>Jiu-Jitsu CON Kids No-Gi International</t>
+  </si>
+  <si>
+    <t>JJC-KNGI</t>
+  </si>
 </sst>
 </file>
 
@@ -318,7 +324,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +372,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -473,7 +485,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -582,6 +594,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -890,7 +914,7 @@
   <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:G9"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,10 +1096,39 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+    </row>
+    <row r="14" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B13:G13"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:G3"/>
@@ -1089,9 +1142,10 @@
     <hyperlink ref="B8" r:id="rId3"/>
     <hyperlink ref="B10" r:id="rId4"/>
     <hyperlink ref="B12" r:id="rId5"/>
+    <hyperlink ref="B14" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1100,12 +1154,12 @@
   <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:E22"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="3.140625" customWidth="1"/>
     <col min="5" max="6" width="17.7109375" customWidth="1"/>
@@ -1193,9 +1247,13 @@
       <c r="E7" s="18"/>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>41</v>
+      </c>
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>
       <c r="F8" s="13"/>

--- a/IBJJF Vegas 2025 Urls.xlsx
+++ b/IBJJF Vegas 2025 Urls.xlsx
@@ -119,9 +119,27 @@
     <t>A, M</t>
   </si>
   <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>Aug. 28th to 30th</t>
+  </si>
+  <si>
+    <t>Aug. 28th to 29th</t>
+  </si>
+  <si>
+    <t>Aug. 30st</t>
+  </si>
+  <si>
+    <t>Jiu-Jitsu CON Kids No-Gi International</t>
+  </si>
+  <si>
+    <t>JJC-KNGI</t>
+  </si>
+  <si>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -130,7 +148,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -139,7 +157,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="11"/>
         <color theme="2" tint="-0.749992370372631"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -148,7 +166,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -159,7 +177,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="11"/>
         <color theme="0" tint="-0.499984740745262"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -168,7 +186,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="11"/>
         <color rgb="FFFFFF00"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -177,7 +195,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="11"/>
         <color theme="9"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -186,7 +204,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -194,24 +212,6 @@
       <t>●</t>
     </r>
   </si>
-  <si>
-    <t>○</t>
-  </si>
-  <si>
-    <t>Aug. 28th to 30th</t>
-  </si>
-  <si>
-    <t>Aug. 28th to 29th</t>
-  </si>
-  <si>
-    <t>Aug. 30st</t>
-  </si>
-  <si>
-    <t>Jiu-Jitsu CON Kids No-Gi International</t>
-  </si>
-  <si>
-    <t>JJC-KNGI</t>
-  </si>
 </sst>
 </file>
 
@@ -263,65 +263,66 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="11"/>
       <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="2" tint="-0.749992370372631"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="11"/>
       <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -483,13 +484,10 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -536,77 +534,80 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -914,7 +915,7 @@
   <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="G14" sqref="B2:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,25 +929,25 @@
     <col min="13" max="13" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="26" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
         <v>4</v>
       </c>
@@ -956,27 +957,27 @@
       <c r="F3" s="29"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+    <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="31" t="s">
         <v>3</v>
       </c>
@@ -986,27 +987,27 @@
       <c r="F5" s="32"/>
       <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+    <row r="6" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="34" t="s">
         <v>2</v>
       </c>
@@ -1016,27 +1017,27 @@
       <c r="F7" s="35"/>
       <c r="G7" s="36"/>
     </row>
-    <row r="8" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
+    <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="37" t="s">
         <v>6</v>
       </c>
@@ -1046,27 +1047,27 @@
       <c r="F9" s="38"/>
       <c r="G9" s="39"/>
     </row>
-    <row r="10" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
+    <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
         <v>7</v>
       </c>
@@ -1076,54 +1077,54 @@
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
     </row>
-    <row r="12" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+    <row r="12" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-    </row>
-    <row r="14" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
+      <c r="G12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>39</v>
+      <c r="G14" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1154,7 +1155,7 @@
   <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,104 +1167,104 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="26" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="27"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
+      <c r="B8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
